--- a/TaxDemo/Resources/ReportTemplate.xlsx
+++ b/TaxDemo/Resources/ReportTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\testws\TaxDemo\TaxDemo\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYQ-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D0B3678-85C6-4EF0-9328-2BF2E063CB26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15210" windowHeight="8400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15210" windowHeight="8400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报表一" sheetId="7" r:id="rId1"/>
@@ -21,14 +22,14 @@
     <definedName name="exrate4">#REF!</definedName>
     <definedName name="non">#REF!</definedName>
     <definedName name="nongross">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">报表二!$A$1:$J$27</definedName>
-    <definedName name="rate" localSheetId="1">报表二!$M$33:$P$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">报表二!$A$1:$K$27</definedName>
+    <definedName name="rate" localSheetId="1">报表二!$N$33:$Q$42</definedName>
     <definedName name="rate">#REF!</definedName>
-    <definedName name="rate_2" localSheetId="1">报表二!$N$33:$P$42</definedName>
+    <definedName name="rate_2" localSheetId="1">报表二!$O$33:$Q$42</definedName>
     <definedName name="rate_2">#REF!</definedName>
     <definedName name="rate1">#REF!</definedName>
     <definedName name="tax_rate_1">#REF!</definedName>
-    <definedName name="tax_rate_2" localSheetId="1">报表二!$N$4:$P$42</definedName>
+    <definedName name="tax_rate_2" localSheetId="1">报表二!$O$4:$Q$42</definedName>
     <definedName name="tax_rate_2">#REF!</definedName>
     <definedName name="taxrate1">#REF!</definedName>
     <definedName name="taxrate2">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>人民币(元)</t>
   </si>
@@ -121,22 +122,22 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>已纳税额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>工资收入</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>境内已纳税额</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>以前留抵税额</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>工资收入</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -144,7 +145,7 @@
     <numFmt numFmtId="179" formatCode="0.0%"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Courier"/>
@@ -571,11 +572,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal_BLTB Return" xfId="1"/>
+    <cellStyle name="Normal_BLTB Return" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_2" xfId="4"/>
-    <cellStyle name="常规_Sheet1_4" xfId="5"/>
+    <cellStyle name="常规_Sheet1_2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规_Sheet1_4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="千位分隔" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,7 +609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8194" name="Text 2"/>
+        <xdr:cNvPr id="8194" name="Text 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -753,7 +760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8195" name="Text 3"/>
+        <xdr:cNvPr id="8195" name="Text 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -961,7 +974,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8196" name="Text 4"/>
+        <xdr:cNvPr id="8196" name="Text 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1107,7 +1126,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8197" name="Text 5"/>
+        <xdr:cNvPr id="8197" name="Text 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1253,7 +1278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8198" name="Text 6"/>
+        <xdr:cNvPr id="8198" name="Text 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1352,20 +1383,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8199" name="Text 7"/>
+        <xdr:cNvPr id="8199" name="Text 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1529,20 +1566,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8200" name="Text 8"/>
+        <xdr:cNvPr id="8200" name="Text 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1660,20 +1703,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8201" name="Text 9"/>
+        <xdr:cNvPr id="8201" name="Text 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1824,20 +1873,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8202" name="Text 10"/>
+        <xdr:cNvPr id="8202" name="Text 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1917,20 +1972,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8203" name="Text 11"/>
+        <xdr:cNvPr id="8203" name="Text 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2072,20 +2133,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8204" name="Text 12"/>
+        <xdr:cNvPr id="8204" name="Text 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2276,20 +2343,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8205" name="Text 13"/>
+        <xdr:cNvPr id="8205" name="Text 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2421,20 +2494,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8206" name="Text 14"/>
+        <xdr:cNvPr id="8206" name="Text 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2558,14 +2637,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8207" name="Text 15"/>
+        <xdr:cNvPr id="8207" name="Text 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2698,14 +2783,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8208" name="Text 16"/>
+        <xdr:cNvPr id="8208" name="Text 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3022,7 +3113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8209" name="Text 17"/>
+        <xdr:cNvPr id="8209" name="Text 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3083,20 +3180,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8210" name="Text 18"/>
+        <xdr:cNvPr id="8210" name="Text 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3185,14 +3288,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8211" name="Text 19"/>
+        <xdr:cNvPr id="8211" name="Text 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3289,20 +3398,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8212" name="Text 52"/>
+        <xdr:cNvPr id="8212" name="Text 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3419,7 +3534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8815" name="Line 23"/>
+        <xdr:cNvPr id="8815" name="Line 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006F220000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -3447,20 +3568,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8216" name="Text 61"/>
+        <xdr:cNvPr id="8216" name="Text 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3679,7 +3806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3754,6 +3881,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3789,6 +3933,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3964,14 +4125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -3985,7 +4146,7 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" customHeight="1">
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -3994,7 +4155,7 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="2:8" ht="19.5" customHeight="1">
+    <row r="2" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4003,7 +4164,7 @@
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="2:8" ht="19.5" customHeight="1">
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
@@ -4022,7 +4183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="19.5" customHeight="1">
+    <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="50"/>
       <c r="C4" s="52"/>
       <c r="D4" s="34" t="s">
@@ -4037,7 +4198,7 @@
       </c>
       <c r="H4" s="56"/>
     </row>
-    <row r="5" spans="2:8" ht="19.5" customHeight="1">
+    <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
@@ -4046,7 +4207,7 @@
       <c r="G5" s="31"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="2:8" ht="19.5" customHeight="1">
+    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
@@ -4055,7 +4216,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="2:8" ht="19.5" customHeight="1">
+    <row r="7" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
@@ -4064,7 +4225,7 @@
       <c r="G7" s="31"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="2:8" ht="19.5" customHeight="1">
+    <row r="8" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
@@ -4073,7 +4234,7 @@
       <c r="G8" s="31"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="2:8" ht="19.5" customHeight="1">
+    <row r="9" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
@@ -4082,7 +4243,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
     </row>
-    <row r="10" spans="2:8" ht="19.5" customHeight="1">
+    <row r="10" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -4091,7 +4252,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="32"/>
     </row>
-    <row r="11" spans="2:8" ht="19.5" customHeight="1">
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="37"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -4100,7 +4261,7 @@
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="2:8" ht="19.5" customHeight="1">
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="37"/>
       <c r="C12" s="29"/>
       <c r="D12" s="30"/>
@@ -4109,7 +4270,7 @@
       <c r="G12" s="31"/>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="2:8" ht="19.5" customHeight="1">
+    <row r="13" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
       <c r="C13" s="29"/>
       <c r="D13" s="30"/>
@@ -4118,7 +4279,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="2:8" ht="19.5" customHeight="1">
+    <row r="14" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="37"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -4127,7 +4288,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
     </row>
-    <row r="15" spans="2:8" ht="19.5" customHeight="1">
+    <row r="15" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="37"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
@@ -4136,7 +4297,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="32"/>
     </row>
-    <row r="16" spans="2:8" ht="19.5" customHeight="1">
+    <row r="16" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="37"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
@@ -4145,7 +4306,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="32"/>
     </row>
-    <row r="17" spans="2:8" ht="19.5" customHeight="1">
+    <row r="17" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="28" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +4317,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1">
+    <row r="18" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -4165,7 +4326,7 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="2:8" ht="19.5" customHeight="1">
+    <row r="19" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -4191,17 +4352,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q252"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
@@ -4210,21 +4371,21 @@
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="18" width="10.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="8" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="1" customWidth="1"/>
+    <col min="14" max="19" width="10.625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1"/>
-    <row r="2" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -4235,8 +4396,9 @@
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
       <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4247,27 +4409,28 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
+      <c r="K4" s="8"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="4">
+      <c r="P4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
@@ -4285,20 +4448,23 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="Q5" s="6">
+      <c r="M5" s="3"/>
+      <c r="R5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62"/>
       <c r="B6" s="10" t="s">
         <v>15</v>
@@ -4325,10 +4491,13 @@
       <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="K6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -4338,11 +4507,12 @@
       <c r="G7" s="41"/>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="L7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="M7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -4352,11 +4522,12 @@
       <c r="G8" s="41"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="L8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
+      <c r="M8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -4366,11 +4537,12 @@
       <c r="G9" s="41"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="L9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="M9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -4380,11 +4552,12 @@
       <c r="G10" s="41"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="L10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
+      <c r="M10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -4394,11 +4567,12 @@
       <c r="G11" s="41"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="L11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="M11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -4408,11 +4582,12 @@
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="L12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="M12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4422,9 +4597,10 @@
       <c r="G13" s="41"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -4434,9 +4610,10 @@
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -4446,9 +4623,10 @@
       <c r="G15" s="41"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -4458,9 +4636,10 @@
       <c r="G16" s="41"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -4470,9 +4649,10 @@
       <c r="G17" s="41"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -4482,9 +4662,10 @@
       <c r="G18" s="41"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
         <v>16</v>
       </c>
@@ -4496,11 +4677,12 @@
       <c r="G19" s="41"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="L19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="M19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>1</v>
       </c>
@@ -4513,8 +4695,9 @@
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
       <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="24"/>
       <c r="C21" s="13"/>
@@ -4524,9 +4707,10 @@
       <c r="G21" s="15"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="J21" s="14"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -4536,9 +4720,10 @@
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="J22" s="14"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="19"/>
@@ -4548,18 +4733,20 @@
       <c r="G23" s="21"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+      <c r="J23" s="14"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1">
+      <c r="J24" s="14"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -4569,9 +4756,10 @@
       <c r="G25" s="15"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1">
+      <c r="J25" s="21"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -4581,386 +4769,389 @@
       <c r="G26" s="18"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+      <c r="J26" s="14"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" s="19"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+      <c r="J27" s="17"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1"/>
-    <row r="30" spans="1:17" ht="15" customHeight="1"/>
-    <row r="31" spans="1:17" ht="15" customHeight="1"/>
-    <row r="32" spans="1:17" ht="15" customHeight="1"/>
-    <row r="33" spans="13:16" ht="15" customHeight="1">
-      <c r="M33" s="6">
-        <v>0.01</v>
-      </c>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N33" s="6">
         <v>0.01</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="P33" s="7">
         <v>0.05</v>
       </c>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="13:16" ht="15" customHeight="1">
-      <c r="M34" s="6">
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="6">
         <v>500.01</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <v>475.01</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <v>0.1</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="13:16" ht="15" customHeight="1">
-      <c r="M35" s="6">
+    <row r="35" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="6">
         <v>2000.01</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <v>1825.01</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <v>0.15</v>
       </c>
-      <c r="P35" s="6">
+      <c r="Q35" s="6">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="13:16" ht="15" customHeight="1">
-      <c r="M36" s="6">
+    <row r="36" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="6">
         <v>5000.01</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <v>4375.01</v>
       </c>
-      <c r="O36" s="7">
+      <c r="P36" s="7">
         <v>0.2</v>
       </c>
-      <c r="P36" s="6">
+      <c r="Q36" s="6">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="13:16" ht="15" customHeight="1">
-      <c r="M37" s="6">
+    <row r="37" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="6">
         <v>20000.009999999998</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <v>16375.01</v>
       </c>
-      <c r="O37" s="7">
+      <c r="P37" s="7">
         <v>0.25</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <v>1375</v>
       </c>
     </row>
-    <row r="38" spans="13:16" ht="15" customHeight="1">
-      <c r="M38" s="6">
+    <row r="38" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="6">
         <v>40000.01</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <v>31375.01</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <v>0.3</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <v>3375</v>
       </c>
     </row>
-    <row r="39" spans="13:16" ht="15" customHeight="1">
-      <c r="M39" s="6">
+    <row r="39" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="6">
         <v>60000.01</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <v>45375.01</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <v>0.35</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <v>6375</v>
       </c>
     </row>
-    <row r="40" spans="13:16" ht="15" customHeight="1">
-      <c r="M40" s="6">
+    <row r="40" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="6">
         <v>80000.009999999995</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <v>58375.01</v>
       </c>
-      <c r="O40" s="7">
+      <c r="P40" s="7">
         <v>0.4</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="6">
         <v>10375</v>
       </c>
     </row>
-    <row r="41" spans="13:16" ht="15" customHeight="1">
-      <c r="M41" s="6">
+    <row r="41" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="6">
         <v>100000.01</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <v>70375.009999999995</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <v>0.45</v>
       </c>
-      <c r="P41" s="6">
+      <c r="Q41" s="6">
         <v>15375</v>
       </c>
     </row>
-    <row r="42" spans="13:16" ht="15" customHeight="1">
-      <c r="M42" s="6"/>
+    <row r="42" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N42" s="6"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="13:16" ht="15" customHeight="1"/>
-    <row r="44" spans="13:16" ht="15" customHeight="1">
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="13:16" ht="15" customHeight="1">
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="13:16" ht="15" customHeight="1">
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="13:16" ht="15" customHeight="1">
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="13:16" ht="15" customHeight="1">
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="14:14" ht="15" customHeight="1">
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="14:14" ht="15" customHeight="1">
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="14:14" ht="15" customHeight="1">
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="14:14" ht="15" customHeight="1">
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="14:14" ht="15" customHeight="1"/>
-    <row r="54" spans="14:14" ht="15" customHeight="1"/>
-    <row r="55" spans="14:14" ht="15" customHeight="1"/>
-    <row r="56" spans="14:14" ht="15" customHeight="1"/>
-    <row r="57" spans="14:14" ht="15" customHeight="1"/>
-    <row r="58" spans="14:14" ht="15" customHeight="1"/>
-    <row r="59" spans="14:14" ht="15" customHeight="1"/>
-    <row r="60" spans="14:14" ht="15" customHeight="1"/>
-    <row r="61" spans="14:14" ht="15" customHeight="1"/>
-    <row r="62" spans="14:14" ht="15" customHeight="1"/>
-    <row r="63" spans="14:14" ht="15" customHeight="1"/>
-    <row r="64" spans="14:14" ht="15" customHeight="1"/>
-    <row r="65" ht="15" customHeight="1"/>
-    <row r="66" ht="15" customHeight="1"/>
-    <row r="67" ht="15" customHeight="1"/>
-    <row r="68" ht="15" customHeight="1"/>
-    <row r="69" ht="15" customHeight="1"/>
-    <row r="70" ht="15" customHeight="1"/>
-    <row r="71" ht="15" customHeight="1"/>
-    <row r="72" ht="15" customHeight="1"/>
-    <row r="73" ht="15" customHeight="1"/>
-    <row r="74" ht="15" customHeight="1"/>
-    <row r="75" ht="15" customHeight="1"/>
-    <row r="76" ht="15" customHeight="1"/>
-    <row r="77" ht="15" customHeight="1"/>
-    <row r="78" ht="15" customHeight="1"/>
-    <row r="79" ht="15" customHeight="1"/>
-    <row r="80" ht="15" customHeight="1"/>
-    <row r="81" ht="15" customHeight="1"/>
-    <row r="82" ht="15" customHeight="1"/>
-    <row r="83" ht="15" customHeight="1"/>
-    <row r="84" ht="15" customHeight="1"/>
-    <row r="85" ht="15" customHeight="1"/>
-    <row r="86" ht="15" customHeight="1"/>
-    <row r="87" ht="15" customHeight="1"/>
-    <row r="88" ht="15" customHeight="1"/>
-    <row r="89" ht="15" customHeight="1"/>
-    <row r="90" ht="15" customHeight="1"/>
-    <row r="91" ht="15" customHeight="1"/>
-    <row r="92" ht="15" customHeight="1"/>
-    <row r="93" ht="15" customHeight="1"/>
-    <row r="94" ht="15" customHeight="1"/>
-    <row r="95" ht="15" customHeight="1"/>
-    <row r="96" ht="15" customHeight="1"/>
-    <row r="97" ht="15" customHeight="1"/>
-    <row r="98" ht="15" customHeight="1"/>
-    <row r="99" ht="15" customHeight="1"/>
-    <row r="100" ht="15" customHeight="1"/>
-    <row r="101" ht="15" customHeight="1"/>
-    <row r="102" ht="15" customHeight="1"/>
-    <row r="103" ht="15" customHeight="1"/>
-    <row r="104" ht="15" customHeight="1"/>
-    <row r="105" ht="15" customHeight="1"/>
-    <row r="106" ht="15" customHeight="1"/>
-    <row r="107" ht="15" customHeight="1"/>
-    <row r="108" ht="15" customHeight="1"/>
-    <row r="109" ht="15" customHeight="1"/>
-    <row r="110" ht="15" customHeight="1"/>
-    <row r="111" ht="15" customHeight="1"/>
-    <row r="112" ht="15" customHeight="1"/>
-    <row r="113" ht="15" customHeight="1"/>
-    <row r="114" ht="15" customHeight="1"/>
-    <row r="115" ht="15" customHeight="1"/>
-    <row r="116" ht="15" customHeight="1"/>
-    <row r="117" ht="15" customHeight="1"/>
-    <row r="118" ht="15" customHeight="1"/>
-    <row r="119" ht="15" customHeight="1"/>
-    <row r="120" ht="15" customHeight="1"/>
-    <row r="121" ht="15" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
-    <row r="123" ht="15" customHeight="1"/>
-    <row r="124" ht="15" customHeight="1"/>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="126" ht="15" customHeight="1"/>
-    <row r="127" ht="15" customHeight="1"/>
-    <row r="128" ht="15" customHeight="1"/>
-    <row r="129" ht="15" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="131" ht="15" customHeight="1"/>
-    <row r="132" ht="15" customHeight="1"/>
-    <row r="133" ht="15" customHeight="1"/>
-    <row r="134" ht="15" customHeight="1"/>
-    <row r="135" ht="15" customHeight="1"/>
-    <row r="136" ht="15" customHeight="1"/>
-    <row r="137" ht="15" customHeight="1"/>
-    <row r="138" ht="15" customHeight="1"/>
-    <row r="139" ht="15" customHeight="1"/>
-    <row r="140" ht="15" customHeight="1"/>
-    <row r="141" ht="15" customHeight="1"/>
-    <row r="142" ht="15" customHeight="1"/>
-    <row r="143" ht="15" customHeight="1"/>
-    <row r="144" ht="15" customHeight="1"/>
-    <row r="145" ht="15" customHeight="1"/>
-    <row r="146" ht="15" customHeight="1"/>
-    <row r="147" ht="15" customHeight="1"/>
-    <row r="148" ht="15" customHeight="1"/>
-    <row r="149" ht="15" customHeight="1"/>
-    <row r="150" ht="15" customHeight="1"/>
-    <row r="151" ht="15" customHeight="1"/>
-    <row r="152" ht="15" customHeight="1"/>
-    <row r="153" ht="15" customHeight="1"/>
-    <row r="154" ht="15" customHeight="1"/>
-    <row r="155" ht="15" customHeight="1"/>
-    <row r="156" ht="15" customHeight="1"/>
-    <row r="157" ht="15" customHeight="1"/>
-    <row r="158" ht="15" customHeight="1"/>
-    <row r="159" ht="15" customHeight="1"/>
-    <row r="160" ht="15" customHeight="1"/>
-    <row r="161" ht="15" customHeight="1"/>
-    <row r="162" ht="15" customHeight="1"/>
-    <row r="163" ht="15" customHeight="1"/>
-    <row r="164" ht="15" customHeight="1"/>
-    <row r="165" ht="15" customHeight="1"/>
-    <row r="166" ht="15" customHeight="1"/>
-    <row r="167" ht="15" customHeight="1"/>
-    <row r="168" ht="15" customHeight="1"/>
-    <row r="169" ht="15" customHeight="1"/>
-    <row r="170" ht="15" customHeight="1"/>
-    <row r="171" ht="15" customHeight="1"/>
-    <row r="172" ht="15" customHeight="1"/>
-    <row r="173" ht="15" customHeight="1"/>
-    <row r="174" ht="15" customHeight="1"/>
-    <row r="175" ht="15" customHeight="1"/>
-    <row r="176" ht="15" customHeight="1"/>
-    <row r="177" ht="15" customHeight="1"/>
-    <row r="178" ht="15" customHeight="1"/>
-    <row r="179" ht="15" customHeight="1"/>
-    <row r="180" ht="15" customHeight="1"/>
-    <row r="181" ht="15" customHeight="1"/>
-    <row r="182" ht="15" customHeight="1"/>
-    <row r="183" ht="15" customHeight="1"/>
-    <row r="184" ht="15" customHeight="1"/>
-    <row r="185" ht="15" customHeight="1"/>
-    <row r="186" ht="15" customHeight="1"/>
-    <row r="187" ht="15" customHeight="1"/>
-    <row r="188" ht="15" customHeight="1"/>
-    <row r="189" ht="15" customHeight="1"/>
-    <row r="190" ht="15" customHeight="1"/>
-    <row r="191" ht="15" customHeight="1"/>
-    <row r="192" ht="15" customHeight="1"/>
-    <row r="193" ht="15" customHeight="1"/>
-    <row r="194" ht="15" customHeight="1"/>
-    <row r="195" ht="15" customHeight="1"/>
-    <row r="196" ht="15" customHeight="1"/>
-    <row r="197" ht="15" customHeight="1"/>
-    <row r="198" ht="15" customHeight="1"/>
-    <row r="199" ht="15" customHeight="1"/>
-    <row r="200" ht="15" customHeight="1"/>
-    <row r="201" ht="15" customHeight="1"/>
-    <row r="202" ht="15" customHeight="1"/>
-    <row r="203" ht="15" customHeight="1"/>
-    <row r="204" ht="15" customHeight="1"/>
-    <row r="205" ht="15" customHeight="1"/>
-    <row r="206" ht="15" customHeight="1"/>
-    <row r="207" ht="15" customHeight="1"/>
-    <row r="208" ht="15" customHeight="1"/>
-    <row r="209" ht="15" customHeight="1"/>
-    <row r="210" ht="15" customHeight="1"/>
-    <row r="211" ht="15" customHeight="1"/>
-    <row r="212" ht="15" customHeight="1"/>
-    <row r="213" ht="15" customHeight="1"/>
-    <row r="214" ht="15" customHeight="1"/>
-    <row r="215" ht="15" customHeight="1"/>
-    <row r="216" ht="15" customHeight="1"/>
-    <row r="217" ht="15" customHeight="1"/>
-    <row r="218" ht="15" customHeight="1"/>
-    <row r="219" ht="15" customHeight="1"/>
-    <row r="220" ht="15" customHeight="1"/>
-    <row r="221" ht="15" customHeight="1"/>
-    <row r="222" ht="15" customHeight="1"/>
-    <row r="223" ht="15" customHeight="1"/>
-    <row r="224" ht="15" customHeight="1"/>
-    <row r="225" ht="15" customHeight="1"/>
-    <row r="226" ht="15" customHeight="1"/>
-    <row r="227" ht="15" customHeight="1"/>
-    <row r="228" ht="15" customHeight="1"/>
-    <row r="229" ht="15" customHeight="1"/>
-    <row r="230" ht="15" customHeight="1"/>
-    <row r="231" ht="15" customHeight="1"/>
-    <row r="232" ht="15" customHeight="1"/>
-    <row r="233" ht="15" customHeight="1"/>
-    <row r="234" ht="15" customHeight="1"/>
-    <row r="235" ht="15" customHeight="1"/>
-    <row r="236" ht="15" customHeight="1"/>
-    <row r="237" ht="15" customHeight="1"/>
-    <row r="238" ht="15" customHeight="1"/>
-    <row r="239" ht="15" customHeight="1"/>
-    <row r="240" ht="15" customHeight="1"/>
-    <row r="241" ht="15" customHeight="1"/>
-    <row r="242" ht="15" customHeight="1"/>
-    <row r="243" ht="15" customHeight="1"/>
-    <row r="244" ht="15" customHeight="1"/>
-    <row r="245" ht="15" customHeight="1"/>
-    <row r="246" ht="15" customHeight="1"/>
-    <row r="247" ht="15" customHeight="1"/>
-    <row r="248" ht="15" customHeight="1"/>
-    <row r="249" ht="15" customHeight="1"/>
-    <row r="250" ht="15" customHeight="1"/>
-    <row r="251" ht="15" customHeight="1"/>
-    <row r="252" ht="15" customHeight="1"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="14:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="15:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A3:K3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
@@ -4974,16 +5165,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6">
         <v>0.01</v>
       </c>
@@ -4995,7 +5186,7 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="12.75">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1500.01</v>
       </c>
@@ -5009,7 +5200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.75">
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>4500.01</v>
       </c>
@@ -5023,7 +5214,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>9000.01</v>
       </c>
@@ -5037,7 +5228,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.75">
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>35000.01</v>
       </c>
@@ -5051,7 +5242,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.75">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>55000.01</v>
       </c>
@@ -5065,7 +5256,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.75">
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>80000.009999999995</v>
       </c>
@@ -5079,31 +5270,31 @@
         <v>13505</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="12.75">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="12.75">
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="12.75">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75">
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="12.75">
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
